--- a/biology/Médecine/Théophile_de_Bordeu/Théophile_de_Bordeu.xlsx
+++ b/biology/Médecine/Théophile_de_Bordeu/Théophile_de_Bordeu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_de_Bordeu</t>
+          <t>Théophile_de_Bordeu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théophile de Bordeu, né le 22 février 1722 à Izeste (vallée d'Ossau) et mort le 23 novembre 1776 à Bagnères-de-Bigorre, est un médecin et philosophe français représentant important du vitalisme. Il est également en langue d'oc auteur de poésies béarnaises[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théophile de Bordeu, né le 22 février 1722 à Izeste (vallée d'Ossau) et mort le 23 novembre 1776 à Bagnères-de-Bigorre, est un médecin et philosophe français représentant important du vitalisme. Il est également en langue d'oc auteur de poésies béarnaises.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_de_Bordeu</t>
+          <t>Théophile_de_Bordeu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille de médecins, Théophile de Bordeu fit ses études de médecine à Montpellier, où il se signala très vite par son opposition aux doctrines de Boerhaave qui dominaient alors, à la suite de quoi il passa quelques mois à Pau où il découvrit le thermalisme pyrénéen. Il se fit ensuite recevoir à Paris avec le soutien de son cousin Louis de Lacaze, médecin ordinaire de Louis XV, et se fixa dans cette ville.
 Il travailla un temps à l’Infirmerie royale de Versailles tout en se livrant à des études sur le pouls, le tissu muqueux, les glandes, les maladies chroniques et l’histoire de la médecine. En 1748, il lança le thermalisme pyrénéen en dirigeant la cure du duc et de la duchesse de Biron. Il fut nommé inspecteur des eaux thermales de la généralité d’Auch et inspecteur des eaux de Barèges l’année suivante.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_de_Bordeu</t>
+          <t>Théophile_de_Bordeu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +561,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philosophie et médecine
-Propagateur zélé d’idées nouvelles, il eut de vifs démêlés avec plusieurs de ses confrères et fut quelque temps interdit.
+          <t>Philosophie et médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propagateur zélé d’idées nouvelles, il eut de vifs démêlés avec plusieurs de ses confrères et fut quelque temps interdit.
 Bordeu s’attacha toujours à prouver que tout ne s’explique pas dans les fonctions vitales par les simples lois de la mécanique ou de la chimie et qu’il faut admettre une force spéciale pour en rendre compte ; il la nomme sensibilité et il attribue à chaque organe une sensibilité qui lui est propre. La vie d'un corps animal est le produit de l'interaction de différents organes, animés chacun d'une vie propre :
 « Tous les éléments du corps sont sensibles par essence ; la vie consiste dans la faculté qu'a la fibre animale de sentir et de se mouvoir elle-même. Tous les organes d'un animal vivent chacun à leur manière, sentent plus ou moins, et se meuvent, agissent ou se reposent dans des temps marqués. La somme de ces vies particulières établit la vie générale, entretenue par une suite d'actions et de réactions mesurées, qui déterminent dans chaque partie l'exercice de ses fonctions et l'ensemble de ses propriétés. »
 — Th. de Bordeu, Essai sur les maladies chroniques
-Il était avec Paul-Joseph Barthez, le fondateur de l'école vitaliste, également appelé la doctrine médicale de l'École de Montpellier[2].
+Il était avec Paul-Joseph Barthez, le fondateur de l'école vitaliste, également appelé la doctrine médicale de l'École de Montpellier.
 On lui doit, en anatomie, d’importantes découvertes sur l’usage des glandes, sur la structure des tissus, découvertes qui ont ouvert la voie à Xavier Bichat.
 Dans la médecine pratique, il insista sur l’utilité des eaux minérales pour la guérison des écrouelles, sur la nécessité de consulter le pouls et d’en distinguer les espèces, sur les avantages de l’inoculation.
-Poésie
-Originaire du Béarn, Théophile de Bordeu parlait couramment la langue d'oc de son pays d'origine : le béarnais. Son poème Aumatge, dédié à la Vallée d'Ossau, fut publié dans l'anthologie de Vignancour Poésies béarnaises, au côté des autres grands auteurs en langue béarnaise des XVIIIe et XIXe siècles.
-Houmatye
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Théophile_de_Bordeu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9ophile_de_Bordeu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Béarn, Théophile de Bordeu parlait couramment la langue d'oc de son pays d'origine : le béarnais. Son poème Aumatge, dédié à la Vallée d'Ossau, fut publié dans l'anthologie de Vignancour Poésies béarnaises, au côté des autres grands auteurs en langue béarnaise des XVIIIe et XIXe siècles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Théophile_de_Bordeu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9ophile_de_Bordeu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Houmatye</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Prou b'an cantat, chens doute, et prou be canteran
 Lou tendre amou, la guerre et tout ço qué de gran
 Per lou mounde se hè, despuch qué, d'ûe alénade
@@ -579,31 +673,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Th%C3%A9ophile_de_Bordeu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Théophile_de_Bordeu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Th%C3%A9ophile_de_Bordeu</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aquitaniae minerales aquae, Paris, Quillau, 1754.
 Correspondance, Montpellier, Centre national de la recherche scientifique, 1977–1979
